--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>644169.1157587175</v>
+        <v>542427.9661624448</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16147793.49271463</v>
+        <v>16147793.49271464</v>
       </c>
     </row>
     <row r="9">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.646571851662</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>274.3489689505702</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>274.3489689505702</v>
+        <v>265.9173718572451</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>104.6672283897153</v>
       </c>
       <c r="S12" t="n">
-        <v>182.6000704870501</v>
+        <v>97.33360583930656</v>
       </c>
       <c r="T12" t="n">
         <v>213.0199265699567</v>
       </c>
       <c r="U12" t="n">
-        <v>147.0068379435825</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>129.4024732919099</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="E14" t="n">
-        <v>195.3098193290143</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>265.917371857245</v>
       </c>
       <c r="G14" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>138.0543947935843</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>206.9021266852166</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>185.4641227130652</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>215.8574111676652</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.4024732919099</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>129.4024732919099</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>274.3489689505702</v>
       </c>
       <c r="G17" t="n">
-        <v>241.646571851662</v>
+        <v>265.917371857245</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>143.6969431313067</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>116.6427736374626</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.16552927680735</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.23694401510255</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>129.4024732919099</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="G20" t="n">
         <v>241.646571851662</v>
       </c>
       <c r="H20" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -2171,7 +2171,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>128.7760249495605</v>
+        <v>257.1829977073941</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>129.4024732919099</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>274.0966902653944</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>102.9644968862265</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.0296064753912</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>171.2850097154894</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0058561736692</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>147.7769360942042</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>116.389885227482</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>74.04675777241924</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>74.63947801161035</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>237.1644071034397</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>133.5475368223391</v>
       </c>
       <c r="X24" t="n">
-        <v>108.5830677809077</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>152.6892610848201</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>142.9815774261563</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.0296064753912</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>236.832667134366</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>81.27418077719111</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>186.3042857300727</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>214.5488816018505</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0058561736692</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>274.220994448934</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>155.5891180031135</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>147.7769360942042</v>
       </c>
       <c r="H27" t="n">
-        <v>116.389885227482</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>74.04675777241924</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>74.63947801161035</v>
       </c>
       <c r="S27" t="n">
         <v>173.6167755696106</v>
@@ -2690,13 +2690,13 @@
         <v>211.070540966857</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1644071034397</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>204.1618480912434</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>140.4561473706377</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>62.88347863396248</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.28496799419635</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>166.9527316607789</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>3.714958855916638</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>7.506610834109384</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.0296064753912</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>171.2850097154894</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>81.27418077719111</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>63.11806896081893</v>
+        <v>214.5488816018505</v>
       </c>
       <c r="U29" t="n">
         <v>250.0058561736692</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>158.7258217612745</v>
       </c>
       <c r="Y29" t="n">
         <v>382.2855674184499</v>
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>154.0881630713383</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>16.64369656687737</v>
       </c>
       <c r="G30" t="n">
         <v>147.7769360942042</v>
       </c>
       <c r="H30" t="n">
-        <v>116.389885227482</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>74.04675777241924</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2933,10 +2933,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>97.06381100903333</v>
+        <v>146.433493052556</v>
       </c>
       <c r="H31" t="n">
-        <v>158.6115528414906</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>44.73815739904671</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
@@ -3043,13 +3043,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.0296064753912</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>171.2850097154894</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>81.27418077719111</v>
       </c>
       <c r="S32" t="n">
-        <v>174.7870053662278</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0058561736692</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>183.0150146758165</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>100.306382957142</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.7769360942042</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>74.04675777241924</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>74.63947801161035</v>
       </c>
       <c r="S33" t="n">
-        <v>173.6167755696106</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>211.070540966857</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.3728291072492</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
-        <v>146.433493052556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>417.0296064753912</v>
       </c>
       <c r="H35" t="n">
-        <v>130.2735975900054</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>62.30895331606261</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.5488816018505</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0058561736692</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,22 +3350,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>147.7769360942042</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>116.389885227482</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>74.04675777241924</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>74.63947801161035</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>173.6167755696106</v>
       </c>
       <c r="T36" t="n">
         <v>211.070540966857</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1644071034397</v>
       </c>
       <c r="V36" t="n">
-        <v>83.37346238181158</v>
+        <v>238.683546322178</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -3438,7 +3438,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>152.6892610848202</v>
+        <v>152.6892610848201</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>25.81269696872845</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>288.2489133034614</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.0296064753912</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>171.2850097154894</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.27418077719111</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.5488816018505</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>94.89691917867269</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>34.9671160859693</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>173.6167755696106</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>142.9815774261564</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>144.679978128602</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6123063868897</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.0296064753912</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>186.3042857300727</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0058561736692</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>285.0276498057471</v>
+        <v>228.4660181070493</v>
       </c>
     </row>
     <row r="42">
@@ -3824,19 +3824,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>69.5436209238694</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>81.48064332808714</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>116.389885227482</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>74.63947801161036</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>173.6167755696106</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.070540966857</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.1644071034397</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>59.28496799419636</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>211.372829107249</v>
+        <v>57.46351363788053</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>150.6172833626663</v>
       </c>
       <c r="G44" t="n">
         <v>417.0296064753912</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.27418077719113</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>186.3588989496179</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>174.3181391130778</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -4067,7 +4067,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>36.56749815312723</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>173.6167755696106</v>
       </c>
       <c r="T45" t="n">
         <v>211.070540966857</v>
@@ -4124,7 +4124,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>129.4980814232903</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>158.6115528414906</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>121.6524532928086</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>576.1882588303288</v>
+      </c>
+      <c r="C11" t="n">
+        <v>576.1882588303288</v>
+      </c>
+      <c r="D11" t="n">
+        <v>576.1882588303288</v>
+      </c>
+      <c r="E11" t="n">
+        <v>576.1882588303288</v>
+      </c>
+      <c r="F11" t="n">
         <v>299.0680881731872</v>
-      </c>
-      <c r="C11" t="n">
-        <v>21.94791751604561</v>
-      </c>
-      <c r="D11" t="n">
-        <v>21.94791751604561</v>
-      </c>
-      <c r="E11" t="n">
-        <v>21.94791751604561</v>
-      </c>
-      <c r="F11" t="n">
-        <v>21.94791751604561</v>
       </c>
       <c r="G11" t="n">
         <v>21.94791751604561</v>
@@ -5050,7 +5050,7 @@
         <v>317.2678444246599</v>
       </c>
       <c r="M11" t="n">
-        <v>555.39107161961</v>
+        <v>555.3910716196099</v>
       </c>
       <c r="N11" t="n">
         <v>790.5249455637493</v>
@@ -5074,19 +5074,19 @@
         <v>1097.395875802281</v>
       </c>
       <c r="U11" t="n">
-        <v>1097.395875802281</v>
+        <v>844.791664746738</v>
       </c>
       <c r="V11" t="n">
-        <v>1097.395875802281</v>
+        <v>844.791664746738</v>
       </c>
       <c r="W11" t="n">
-        <v>1097.395875802281</v>
+        <v>844.791664746738</v>
       </c>
       <c r="X11" t="n">
-        <v>820.275705145139</v>
+        <v>844.791664746738</v>
       </c>
       <c r="Y11" t="n">
-        <v>543.1555344879973</v>
+        <v>576.1882588303288</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.94791751604561</v>
+        <v>195.5111213946311</v>
       </c>
       <c r="C12" t="n">
-        <v>21.94791751604561</v>
+        <v>195.5111213946311</v>
       </c>
       <c r="D12" t="n">
-        <v>21.94791751604561</v>
+        <v>195.5111213946311</v>
       </c>
       <c r="E12" t="n">
         <v>21.94791751604561</v>
@@ -5129,13 +5129,13 @@
         <v>358.6694362623893</v>
       </c>
       <c r="M12" t="n">
-        <v>630.2749155234537</v>
+        <v>363.0037361533354</v>
       </c>
       <c r="N12" t="n">
-        <v>901.8803947845182</v>
+        <v>622.1845535404489</v>
       </c>
       <c r="O12" t="n">
-        <v>901.8803947845182</v>
+        <v>867.8978749056491</v>
       </c>
       <c r="P12" t="n">
         <v>1043.027976024176</v>
@@ -5147,25 +5147,25 @@
         <v>991.6714026813561</v>
       </c>
       <c r="S12" t="n">
-        <v>807.2268870378711</v>
+        <v>893.3546291062989</v>
       </c>
       <c r="T12" t="n">
-        <v>592.0552440379148</v>
+        <v>678.1829861063427</v>
       </c>
       <c r="U12" t="n">
-        <v>443.5634885393466</v>
+        <v>438.590839490997</v>
       </c>
       <c r="V12" t="n">
-        <v>200.4837704429807</v>
+        <v>195.5111213946311</v>
       </c>
       <c r="W12" t="n">
-        <v>200.4837704429807</v>
+        <v>195.5111213946311</v>
       </c>
       <c r="X12" t="n">
-        <v>200.4837704429807</v>
+        <v>195.5111213946311</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.4837704429807</v>
+        <v>195.5111213946311</v>
       </c>
     </row>
     <row r="13">
@@ -5223,7 +5223,7 @@
         <v>152.6574864977728</v>
       </c>
       <c r="R13" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="S13" t="n">
         <v>21.94791751604561</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>496.3507339600703</v>
+        <v>567.6714940895963</v>
       </c>
       <c r="C14" t="n">
-        <v>496.3507339600703</v>
+        <v>567.6714940895963</v>
       </c>
       <c r="D14" t="n">
-        <v>496.3507339600703</v>
+        <v>290.5513234324547</v>
       </c>
       <c r="E14" t="n">
-        <v>299.0680881731872</v>
+        <v>290.5513234324547</v>
       </c>
       <c r="F14" t="n">
-        <v>299.0680881731872</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="G14" t="n">
         <v>21.94791751604561</v>
@@ -5278,22 +5278,22 @@
         <v>21.94791751604561</v>
       </c>
       <c r="J14" t="n">
-        <v>21.94791751604561</v>
+        <v>21.9479175160456</v>
       </c>
       <c r="K14" t="n">
-        <v>129.2129831052412</v>
+        <v>129.2129831052408</v>
       </c>
       <c r="L14" t="n">
-        <v>317.26784442466</v>
+        <v>317.2678444246598</v>
       </c>
       <c r="M14" t="n">
-        <v>555.3910716196101</v>
+        <v>555.3910716196099</v>
       </c>
       <c r="N14" t="n">
-        <v>790.5249455637495</v>
+        <v>790.5249455637492</v>
       </c>
       <c r="O14" t="n">
-        <v>975.645836369733</v>
+        <v>975.6458363697329</v>
       </c>
       <c r="P14" t="n">
         <v>1089.494661134058</v>
@@ -5302,28 +5302,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R14" t="n">
-        <v>957.9469921723975</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="S14" t="n">
-        <v>748.954945015613</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T14" t="n">
-        <v>748.954945015613</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="U14" t="n">
-        <v>496.3507339600703</v>
+        <v>844.791664746738</v>
       </c>
       <c r="V14" t="n">
-        <v>496.3507339600703</v>
+        <v>844.791664746738</v>
       </c>
       <c r="W14" t="n">
-        <v>496.3507339600703</v>
+        <v>844.791664746738</v>
       </c>
       <c r="X14" t="n">
-        <v>496.3507339600703</v>
+        <v>844.791664746738</v>
       </c>
       <c r="Y14" t="n">
-        <v>496.3507339600703</v>
+        <v>567.6714940895963</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>195.5111213946311</v>
+        <v>461.2300872017522</v>
       </c>
       <c r="C15" t="n">
-        <v>195.5111213946311</v>
+        <v>461.2300872017522</v>
       </c>
       <c r="D15" t="n">
-        <v>195.5111213946311</v>
+        <v>461.2300872017522</v>
       </c>
       <c r="E15" t="n">
-        <v>21.94791751604561</v>
+        <v>461.2300872017522</v>
       </c>
       <c r="F15" t="n">
-        <v>21.94791751604561</v>
+        <v>300.8023709189963</v>
       </c>
       <c r="G15" t="n">
-        <v>21.94791751604561</v>
+        <v>151.0442190102677</v>
       </c>
       <c r="H15" t="n">
-        <v>21.94791751604561</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="I15" t="n">
-        <v>21.94791751604561</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="J15" t="n">
         <v>21.94791751604561</v>
       </c>
       <c r="K15" t="n">
-        <v>21.94791751604561</v>
+        <v>137.2905245750913</v>
       </c>
       <c r="L15" t="n">
-        <v>78.97359501831988</v>
+        <v>358.6694362623893</v>
       </c>
       <c r="M15" t="n">
-        <v>350.5790742793844</v>
+        <v>596.2923956445846</v>
       </c>
       <c r="N15" t="n">
-        <v>622.1845535404489</v>
+        <v>867.8978749056491</v>
       </c>
       <c r="O15" t="n">
         <v>867.8978749056491</v>
@@ -5390,19 +5390,19 @@
         <v>1097.395875802281</v>
       </c>
       <c r="U15" t="n">
-        <v>910.0583781123158</v>
+        <v>857.803729186935</v>
       </c>
       <c r="V15" t="n">
-        <v>910.0583781123158</v>
+        <v>639.7659401286874</v>
       </c>
       <c r="W15" t="n">
-        <v>640.6598088426072</v>
+        <v>639.7659401286874</v>
       </c>
       <c r="X15" t="n">
-        <v>421.1518144593035</v>
+        <v>639.7659401286874</v>
       </c>
       <c r="Y15" t="n">
-        <v>195.5111213946311</v>
+        <v>639.7659401286874</v>
       </c>
     </row>
     <row r="16">
@@ -5463,10 +5463,10 @@
         <v>152.6574864977728</v>
       </c>
       <c r="S16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="T16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="U16" t="n">
         <v>21.94791751604561</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1097.395875802281</v>
+        <v>567.6714940895963</v>
       </c>
       <c r="C17" t="n">
-        <v>820.275705145139</v>
+        <v>567.6714940895963</v>
       </c>
       <c r="D17" t="n">
-        <v>820.275705145139</v>
+        <v>567.6714940895963</v>
       </c>
       <c r="E17" t="n">
-        <v>543.1555344879973</v>
+        <v>567.6714940895963</v>
       </c>
       <c r="F17" t="n">
-        <v>266.0353638308557</v>
+        <v>290.5513234324547</v>
       </c>
       <c r="G17" t="n">
         <v>21.94791751604561</v>
@@ -5524,13 +5524,13 @@
         <v>317.2678444246601</v>
       </c>
       <c r="M17" t="n">
-        <v>555.3910716196102</v>
+        <v>555.39107161961</v>
       </c>
       <c r="N17" t="n">
-        <v>790.5249455637495</v>
+        <v>790.5249455637494</v>
       </c>
       <c r="O17" t="n">
-        <v>975.645836369733</v>
+        <v>975.6458363697329</v>
       </c>
       <c r="P17" t="n">
         <v>1089.494661134058</v>
@@ -5548,19 +5548,19 @@
         <v>1097.395875802281</v>
       </c>
       <c r="U17" t="n">
-        <v>1097.395875802281</v>
+        <v>844.791664746738</v>
       </c>
       <c r="V17" t="n">
-        <v>1097.395875802281</v>
+        <v>844.791664746738</v>
       </c>
       <c r="W17" t="n">
-        <v>1097.395875802281</v>
+        <v>844.791664746738</v>
       </c>
       <c r="X17" t="n">
-        <v>1097.395875802281</v>
+        <v>567.6714940895963</v>
       </c>
       <c r="Y17" t="n">
-        <v>1097.395875802281</v>
+        <v>567.6714940895963</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.94791751604561</v>
+        <v>813.1355497544209</v>
       </c>
       <c r="C18" t="n">
-        <v>21.94791751604561</v>
+        <v>623.7232754873846</v>
       </c>
       <c r="D18" t="n">
-        <v>21.94791751604561</v>
+        <v>462.9431592484164</v>
       </c>
       <c r="E18" t="n">
-        <v>21.94791751604561</v>
+        <v>289.3799553698308</v>
       </c>
       <c r="F18" t="n">
-        <v>21.94791751604561</v>
+        <v>289.3799553698308</v>
       </c>
       <c r="G18" t="n">
-        <v>21.94791751604561</v>
+        <v>144.2315279644704</v>
       </c>
       <c r="H18" t="n">
         <v>21.94791751604561</v>
@@ -5597,19 +5597,19 @@
         <v>21.94791751604561</v>
       </c>
       <c r="K18" t="n">
-        <v>137.2905245750913</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="L18" t="n">
-        <v>358.6694362623893</v>
+        <v>243.3268292033436</v>
       </c>
       <c r="M18" t="n">
-        <v>630.2749155234537</v>
+        <v>514.932308464408</v>
       </c>
       <c r="N18" t="n">
-        <v>851.6825544370804</v>
+        <v>786.5377877254725</v>
       </c>
       <c r="O18" t="n">
-        <v>1097.395875802281</v>
+        <v>1032.251109090673</v>
       </c>
       <c r="P18" t="n">
         <v>1097.395875802281</v>
@@ -5618,28 +5618,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R18" t="n">
-        <v>1097.395875802281</v>
+        <v>991.6714026813561</v>
       </c>
       <c r="S18" t="n">
-        <v>1097.395875802281</v>
+        <v>991.6714026813561</v>
       </c>
       <c r="T18" t="n">
-        <v>1097.395875802281</v>
+        <v>991.6714026813561</v>
       </c>
       <c r="U18" t="n">
-        <v>979.5748923300962</v>
+        <v>991.6714026813561</v>
       </c>
       <c r="V18" t="n">
-        <v>736.4951742337303</v>
+        <v>991.6714026813561</v>
       </c>
       <c r="W18" t="n">
-        <v>467.0966049640216</v>
+        <v>991.6714026813561</v>
       </c>
       <c r="X18" t="n">
-        <v>247.588610580718</v>
+        <v>991.6714026813561</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.94791751604561</v>
+        <v>991.6714026813561</v>
       </c>
     </row>
     <row r="19">
@@ -5694,31 +5694,31 @@
         <v>152.6574864977728</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.47875516938637</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="R19" t="n">
-        <v>58.47875516938637</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="S19" t="n">
-        <v>58.47875516938637</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="T19" t="n">
-        <v>58.47875516938637</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="U19" t="n">
-        <v>58.47875516938637</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="V19" t="n">
-        <v>58.47875516938637</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="W19" t="n">
-        <v>58.47875516938637</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="X19" t="n">
-        <v>58.47875516938637</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="Y19" t="n">
-        <v>58.47875516938637</v>
+        <v>21.94791751604561</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>543.1555344879973</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="C20" t="n">
-        <v>543.1555344879973</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="D20" t="n">
-        <v>543.1555344879973</v>
+        <v>820.275705145139</v>
       </c>
       <c r="E20" t="n">
         <v>543.1555344879973</v>
       </c>
       <c r="F20" t="n">
-        <v>543.1555344879973</v>
+        <v>266.0353638308557</v>
       </c>
       <c r="G20" t="n">
-        <v>299.0680881731872</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="H20" t="n">
         <v>21.94791751604561</v>
@@ -5752,13 +5752,13 @@
         <v>21.94791751604561</v>
       </c>
       <c r="J20" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="K20" t="n">
-        <v>129.2129831052412</v>
+        <v>129.2129831052409</v>
       </c>
       <c r="L20" t="n">
-        <v>317.2678444246601</v>
+        <v>317.2678444246599</v>
       </c>
       <c r="M20" t="n">
         <v>555.3910716196101</v>
@@ -5788,16 +5788,16 @@
         <v>1097.395875802281</v>
       </c>
       <c r="V20" t="n">
-        <v>820.275705145139</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="W20" t="n">
-        <v>543.1555344879973</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="X20" t="n">
-        <v>543.1555344879973</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="Y20" t="n">
-        <v>543.1555344879973</v>
+        <v>1097.395875802281</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>545.7035119006357</v>
+        <v>516.7189539163553</v>
       </c>
       <c r="C21" t="n">
-        <v>356.2912376335994</v>
+        <v>516.7189539163553</v>
       </c>
       <c r="D21" t="n">
-        <v>195.5111213946311</v>
+        <v>355.938837677387</v>
       </c>
       <c r="E21" t="n">
-        <v>21.94791751604561</v>
+        <v>182.3756337988015</v>
       </c>
       <c r="F21" t="n">
         <v>21.94791751604561</v>
@@ -5840,10 +5840,10 @@
         <v>358.6694362623893</v>
       </c>
       <c r="M21" t="n">
-        <v>363.0037361533354</v>
+        <v>630.2749155234537</v>
       </c>
       <c r="N21" t="n">
-        <v>622.1845535404489</v>
+        <v>867.8978749056491</v>
       </c>
       <c r="O21" t="n">
         <v>867.8978749056491</v>
@@ -5855,28 +5855,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R21" t="n">
-        <v>1097.395875802281</v>
+        <v>991.6714026813561</v>
       </c>
       <c r="S21" t="n">
-        <v>1097.395875802281</v>
+        <v>991.6714026813561</v>
       </c>
       <c r="T21" t="n">
-        <v>1097.395875802281</v>
+        <v>776.4997596813998</v>
       </c>
       <c r="U21" t="n">
-        <v>1097.395875802281</v>
+        <v>776.4997596813998</v>
       </c>
       <c r="V21" t="n">
-        <v>854.3161577059147</v>
+        <v>776.4997596813998</v>
       </c>
       <c r="W21" t="n">
-        <v>724.2393648275709</v>
+        <v>516.7189539163553</v>
       </c>
       <c r="X21" t="n">
-        <v>724.2393648275709</v>
+        <v>516.7189539163553</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.2393648275709</v>
+        <v>516.7189539163553</v>
       </c>
     </row>
     <row r="22">
@@ -5940,10 +5940,10 @@
         <v>152.6574864977728</v>
       </c>
       <c r="T22" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="U22" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="V22" t="n">
         <v>21.94791751604561</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>673.4520999432162</v>
+        <v>1148.377529307405</v>
       </c>
       <c r="C23" t="n">
-        <v>319.7091732955608</v>
+        <v>1148.377529307405</v>
       </c>
       <c r="D23" t="n">
-        <v>42.84382959314222</v>
+        <v>1148.377529307405</v>
       </c>
       <c r="E23" t="n">
-        <v>42.84382959314222</v>
+        <v>1044.372986998086</v>
       </c>
       <c r="F23" t="n">
-        <v>42.84382959314222</v>
+        <v>637.1010176647388</v>
       </c>
       <c r="G23" t="n">
-        <v>42.84382959314222</v>
+        <v>215.8589909219194</v>
       </c>
       <c r="H23" t="n">
-        <v>42.84382959314222</v>
+        <v>215.8589909219194</v>
       </c>
       <c r="I23" t="n">
         <v>42.84382959314222</v>
       </c>
       <c r="J23" t="n">
-        <v>118.7948485170696</v>
+        <v>118.794848517069</v>
       </c>
       <c r="K23" t="n">
-        <v>339.8908032026513</v>
+        <v>339.890803202651</v>
       </c>
       <c r="L23" t="n">
         <v>669.1629480618876</v>
@@ -6001,13 +6001,13 @@
         <v>1064.417612852395</v>
       </c>
       <c r="N23" t="n">
-        <v>1459.225475328249</v>
+        <v>1459.225475328248</v>
       </c>
       <c r="O23" t="n">
         <v>1795.121985683489</v>
       </c>
       <c r="P23" t="n">
-        <v>2037.654313415862</v>
+        <v>2037.654313415861</v>
       </c>
       <c r="Q23" t="n">
         <v>2142.191479657111</v>
@@ -6022,19 +6022,19 @@
         <v>2142.191479657111</v>
       </c>
       <c r="U23" t="n">
-        <v>2142.191479657111</v>
+        <v>1889.66031180492</v>
       </c>
       <c r="V23" t="n">
-        <v>2142.191479657111</v>
+        <v>1889.66031180492</v>
       </c>
       <c r="W23" t="n">
-        <v>1800.881920237145</v>
+        <v>1889.66031180492</v>
       </c>
       <c r="X23" t="n">
-        <v>1437.465037111179</v>
+        <v>1526.243428678954</v>
       </c>
       <c r="Y23" t="n">
-        <v>1051.317999314765</v>
+        <v>1526.243428678954</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>876.2967726788764</v>
+        <v>1068.657018133322</v>
       </c>
       <c r="C24" t="n">
-        <v>686.8844984118401</v>
+        <v>879.2447438662858</v>
       </c>
       <c r="D24" t="n">
-        <v>526.1043821728719</v>
+        <v>718.4646276273176</v>
       </c>
       <c r="E24" t="n">
-        <v>352.5411782942863</v>
+        <v>544.901423748732</v>
       </c>
       <c r="F24" t="n">
-        <v>192.1134620115303</v>
+        <v>384.4737074659761</v>
       </c>
       <c r="G24" t="n">
-        <v>42.84382959314222</v>
+        <v>235.204075047588</v>
       </c>
       <c r="H24" t="n">
-        <v>42.84382959314222</v>
+        <v>117.6385344137677</v>
       </c>
       <c r="I24" t="n">
         <v>42.84382959314222</v>
       </c>
       <c r="J24" t="n">
-        <v>81.40261765367826</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="K24" t="n">
-        <v>274.0605940835903</v>
+        <v>235.5018060230543</v>
       </c>
       <c r="L24" t="n">
-        <v>599.3995611992158</v>
+        <v>560.8407731386799</v>
       </c>
       <c r="M24" t="n">
-        <v>1023.809454792889</v>
+        <v>985.2506667323532</v>
       </c>
       <c r="N24" t="n">
-        <v>1477.872104965814</v>
+        <v>1439.313316905278</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.503639174575</v>
+        <v>1798.94485111404</v>
       </c>
       <c r="P24" t="n">
-        <v>2104.063149307111</v>
+        <v>2065.504361246576</v>
       </c>
       <c r="Q24" t="n">
         <v>2142.191479657111</v>
       </c>
       <c r="R24" t="n">
-        <v>2142.191479657111</v>
+        <v>2066.798067524172</v>
       </c>
       <c r="S24" t="n">
-        <v>2142.191479657111</v>
+        <v>2066.798067524172</v>
       </c>
       <c r="T24" t="n">
-        <v>2142.191479657111</v>
+        <v>2066.798067524172</v>
       </c>
       <c r="U24" t="n">
-        <v>1902.63147248192</v>
+        <v>1827.23806034898</v>
       </c>
       <c r="V24" t="n">
-        <v>1659.551754385554</v>
+        <v>1827.23806034898</v>
       </c>
       <c r="W24" t="n">
-        <v>1390.153185115845</v>
+        <v>1692.341558508233</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.473318670484</v>
+        <v>1472.83356412493</v>
       </c>
       <c r="Y24" t="n">
-        <v>1054.832625605811</v>
+        <v>1247.192871060257</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.84382959314222</v>
+        <v>326.2812269978611</v>
       </c>
       <c r="C25" t="n">
-        <v>42.84382959314222</v>
+        <v>326.2812269978611</v>
       </c>
       <c r="D25" t="n">
-        <v>42.84382959314222</v>
+        <v>326.2812269978611</v>
       </c>
       <c r="E25" t="n">
-        <v>42.84382959314222</v>
+        <v>183.1740136521793</v>
       </c>
       <c r="F25" t="n">
         <v>42.84382959314222</v>
@@ -6150,49 +6150,49 @@
         <v>42.84382959314222</v>
       </c>
       <c r="K25" t="n">
-        <v>69.7953508353699</v>
+        <v>69.79535083536993</v>
       </c>
       <c r="L25" t="n">
-        <v>157.3712648498091</v>
+        <v>157.3712648498092</v>
       </c>
       <c r="M25" t="n">
-        <v>258.3036767781741</v>
+        <v>258.3036767781742</v>
       </c>
       <c r="N25" t="n">
-        <v>364.8522778054788</v>
+        <v>364.8522778054789</v>
       </c>
       <c r="O25" t="n">
-        <v>441.2695098907346</v>
+        <v>441.2695098907348</v>
       </c>
       <c r="P25" t="n">
-        <v>480.5128038512146</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="Q25" t="n">
-        <v>480.5128038512146</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="R25" t="n">
-        <v>480.5128038512146</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="S25" t="n">
-        <v>480.5128038512146</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="T25" t="n">
-        <v>480.5128038512146</v>
+        <v>326.2812269978611</v>
       </c>
       <c r="U25" t="n">
-        <v>480.5128038512146</v>
+        <v>326.2812269978611</v>
       </c>
       <c r="V25" t="n">
-        <v>336.0869680672183</v>
+        <v>326.2812269978611</v>
       </c>
       <c r="W25" t="n">
-        <v>42.84382959314222</v>
+        <v>326.2812269978611</v>
       </c>
       <c r="X25" t="n">
-        <v>42.84382959314222</v>
+        <v>326.2812269978611</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.84382959314222</v>
+        <v>326.2812269978611</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>737.7707558794111</v>
+        <v>1078.541996937984</v>
       </c>
       <c r="C26" t="n">
-        <v>384.0278292317557</v>
+        <v>1078.541996937984</v>
       </c>
       <c r="D26" t="n">
-        <v>42.84382959314222</v>
+        <v>1078.541996937984</v>
       </c>
       <c r="E26" t="n">
-        <v>42.84382959314222</v>
+        <v>703.3107726333011</v>
       </c>
       <c r="F26" t="n">
-        <v>42.84382959314222</v>
+        <v>703.3107726333011</v>
       </c>
       <c r="G26" t="n">
-        <v>42.84382959314222</v>
+        <v>282.0687458904816</v>
       </c>
       <c r="H26" t="n">
         <v>42.84382959314222</v>
@@ -6232,7 +6232,7 @@
         <v>339.890803202651</v>
       </c>
       <c r="L26" t="n">
-        <v>669.1629480618874</v>
+        <v>669.1629480618876</v>
       </c>
       <c r="M26" t="n">
         <v>1064.417612852395</v>
@@ -6250,28 +6250,28 @@
         <v>2142.191479657111</v>
       </c>
       <c r="R26" t="n">
-        <v>2142.191479657111</v>
+        <v>2060.096347558938</v>
       </c>
       <c r="S26" t="n">
-        <v>2142.191479657111</v>
+        <v>1871.910200356845</v>
       </c>
       <c r="T26" t="n">
-        <v>2142.191479657111</v>
+        <v>1655.194158334773</v>
       </c>
       <c r="U26" t="n">
-        <v>2142.191479657111</v>
+        <v>1402.662990482582</v>
       </c>
       <c r="V26" t="n">
-        <v>2142.191479657111</v>
+        <v>1078.541996937984</v>
       </c>
       <c r="W26" t="n">
-        <v>1865.20057617334</v>
+        <v>1078.541996937984</v>
       </c>
       <c r="X26" t="n">
-        <v>1501.783693047374</v>
+        <v>1078.541996937984</v>
       </c>
       <c r="Y26" t="n">
-        <v>1115.63665525096</v>
+        <v>1078.541996937984</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1065.390027106236</v>
+        <v>365.6766658901159</v>
       </c>
       <c r="C27" t="n">
-        <v>875.9777528392001</v>
+        <v>365.6766658901159</v>
       </c>
       <c r="D27" t="n">
-        <v>715.1976366002318</v>
+        <v>365.6766658901159</v>
       </c>
       <c r="E27" t="n">
-        <v>541.6344327216462</v>
+        <v>192.1134620115303</v>
       </c>
       <c r="F27" t="n">
-        <v>384.4737074659761</v>
+        <v>192.1134620115303</v>
       </c>
       <c r="G27" t="n">
-        <v>235.204075047588</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="H27" t="n">
-        <v>117.6385344137677</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="I27" t="n">
         <v>42.84382959314222</v>
@@ -6308,13 +6308,13 @@
         <v>81.40261765367829</v>
       </c>
       <c r="K27" t="n">
-        <v>196.7028860192656</v>
+        <v>274.0605940835903</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0418531348912</v>
+        <v>599.3995611992159</v>
       </c>
       <c r="M27" t="n">
-        <v>946.4517467285646</v>
+        <v>1023.809454792889</v>
       </c>
       <c r="N27" t="n">
         <v>1400.51439690149</v>
@@ -6329,28 +6329,28 @@
         <v>2142.191479657111</v>
       </c>
       <c r="R27" t="n">
-        <v>2142.191479657111</v>
+        <v>2066.798067524172</v>
       </c>
       <c r="S27" t="n">
-        <v>1966.820999283767</v>
+        <v>1891.427587150828</v>
       </c>
       <c r="T27" t="n">
-        <v>1753.618432650578</v>
+        <v>1678.225020517639</v>
       </c>
       <c r="U27" t="n">
-        <v>1753.618432650578</v>
+        <v>1438.665013342447</v>
       </c>
       <c r="V27" t="n">
-        <v>1510.538714554212</v>
+        <v>1195.585295246081</v>
       </c>
       <c r="W27" t="n">
-        <v>1510.538714554212</v>
+        <v>989.361206265027</v>
       </c>
       <c r="X27" t="n">
-        <v>1291.030720170909</v>
+        <v>769.8532118817234</v>
       </c>
       <c r="Y27" t="n">
-        <v>1065.390027106236</v>
+        <v>544.212518817051</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1909.916067019847</v>
+        <v>472.9303686652456</v>
       </c>
       <c r="C28" t="n">
-        <v>1909.916067019847</v>
+        <v>472.9303686652456</v>
       </c>
       <c r="D28" t="n">
-        <v>1909.916067019847</v>
+        <v>326.2812269978611</v>
       </c>
       <c r="E28" t="n">
-        <v>1909.916067019847</v>
+        <v>183.1740136521793</v>
       </c>
       <c r="F28" t="n">
-        <v>1909.916067019847</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="G28" t="n">
-        <v>1909.916067019847</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="H28" t="n">
-        <v>1909.916067019847</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="I28" t="n">
-        <v>1768.041170685869</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="J28" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="K28" t="n">
-        <v>1731.474026641266</v>
+        <v>69.79535083536993</v>
       </c>
       <c r="L28" t="n">
-        <v>1819.049940655706</v>
+        <v>157.3712648498092</v>
       </c>
       <c r="M28" t="n">
-        <v>1919.982352584071</v>
+        <v>258.3036767781742</v>
       </c>
       <c r="N28" t="n">
-        <v>2026.530953611375</v>
+        <v>364.8522778054789</v>
       </c>
       <c r="O28" t="n">
-        <v>2102.948185696631</v>
+        <v>441.2695098907348</v>
       </c>
       <c r="P28" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="Q28" t="n">
-        <v>2082.307673602368</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="R28" t="n">
-        <v>1913.668550712692</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="S28" t="n">
-        <v>1909.916067019847</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="T28" t="n">
-        <v>1909.916067019847</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="U28" t="n">
-        <v>1909.916067019847</v>
+        <v>472.9303686652456</v>
       </c>
       <c r="V28" t="n">
-        <v>1909.916067019847</v>
+        <v>472.9303686652456</v>
       </c>
       <c r="W28" t="n">
-        <v>1909.916067019847</v>
+        <v>472.9303686652456</v>
       </c>
       <c r="X28" t="n">
-        <v>1909.916067019847</v>
+        <v>472.9303686652456</v>
       </c>
       <c r="Y28" t="n">
-        <v>1909.916067019847</v>
+        <v>472.9303686652456</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>737.7707558794111</v>
+        <v>1044.372986998086</v>
       </c>
       <c r="C29" t="n">
-        <v>384.0278292317557</v>
+        <v>1044.372986998086</v>
       </c>
       <c r="D29" t="n">
-        <v>42.84382959314222</v>
+        <v>1044.372986998086</v>
       </c>
       <c r="E29" t="n">
-        <v>42.84382959314222</v>
+        <v>1044.372986998086</v>
       </c>
       <c r="F29" t="n">
-        <v>42.84382959314222</v>
+        <v>637.1010176647388</v>
       </c>
       <c r="G29" t="n">
-        <v>42.84382959314222</v>
+        <v>215.8589909219194</v>
       </c>
       <c r="H29" t="n">
-        <v>42.84382959314222</v>
+        <v>215.8589909219194</v>
       </c>
       <c r="I29" t="n">
         <v>42.84382959314222</v>
       </c>
       <c r="J29" t="n">
-        <v>118.794848517069</v>
+        <v>118.7948485170688</v>
       </c>
       <c r="K29" t="n">
-        <v>339.890803202651</v>
+        <v>339.8908032026508</v>
       </c>
       <c r="L29" t="n">
-        <v>669.1629480618876</v>
+        <v>669.1629480618872</v>
       </c>
       <c r="M29" t="n">
         <v>1064.417612852395</v>
@@ -6481,34 +6481,34 @@
         <v>1795.121985683489</v>
       </c>
       <c r="P29" t="n">
-        <v>2037.654313415862</v>
+        <v>2037.654313415861</v>
       </c>
       <c r="Q29" t="n">
         <v>2142.191479657111</v>
       </c>
       <c r="R29" t="n">
-        <v>2142.191479657111</v>
+        <v>2060.096347558938</v>
       </c>
       <c r="S29" t="n">
-        <v>2142.191479657111</v>
+        <v>2060.096347558938</v>
       </c>
       <c r="T29" t="n">
-        <v>2078.435854444163</v>
+        <v>1843.380305536867</v>
       </c>
       <c r="U29" t="n">
-        <v>1825.904686591972</v>
+        <v>1590.849137684676</v>
       </c>
       <c r="V29" t="n">
-        <v>1501.783693047374</v>
+        <v>1590.849137684676</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.783693047374</v>
+        <v>1590.849137684676</v>
       </c>
       <c r="X29" t="n">
-        <v>1501.783693047374</v>
+        <v>1430.5200247945</v>
       </c>
       <c r="Y29" t="n">
-        <v>1115.63665525096</v>
+        <v>1044.372986998086</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>544.901423748732</v>
+        <v>571.9007548711697</v>
       </c>
       <c r="C30" t="n">
-        <v>544.901423748732</v>
+        <v>382.4884806041334</v>
       </c>
       <c r="D30" t="n">
-        <v>544.901423748732</v>
+        <v>382.4884806041334</v>
       </c>
       <c r="E30" t="n">
-        <v>544.901423748732</v>
+        <v>208.9252767255479</v>
       </c>
       <c r="F30" t="n">
-        <v>384.4737074659761</v>
+        <v>192.1134620115303</v>
       </c>
       <c r="G30" t="n">
-        <v>235.204075047588</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="H30" t="n">
-        <v>117.6385344137677</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="I30" t="n">
         <v>42.84382959314222</v>
@@ -6581,13 +6581,13 @@
         <v>1195.585295246081</v>
       </c>
       <c r="W30" t="n">
-        <v>926.1867259763723</v>
+        <v>1195.585295246081</v>
       </c>
       <c r="X30" t="n">
-        <v>926.1867259763723</v>
+        <v>976.0773008627773</v>
       </c>
       <c r="Y30" t="n">
-        <v>700.5460329117</v>
+        <v>750.4366077981049</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1962.780448682396</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="C31" t="n">
-        <v>1962.780448682396</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="D31" t="n">
-        <v>1962.780448682396</v>
+        <v>333.8636621838301</v>
       </c>
       <c r="E31" t="n">
-        <v>1962.780448682396</v>
+        <v>190.7564488381483</v>
       </c>
       <c r="F31" t="n">
-        <v>1962.780448682396</v>
+        <v>190.7564488381483</v>
       </c>
       <c r="G31" t="n">
-        <v>1864.736195137918</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="H31" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="I31" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="J31" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="K31" t="n">
-        <v>1731.474026641266</v>
+        <v>69.79535083536993</v>
       </c>
       <c r="L31" t="n">
-        <v>1819.049940655706</v>
+        <v>157.3712648498092</v>
       </c>
       <c r="M31" t="n">
-        <v>1919.982352584071</v>
+        <v>258.3036767781742</v>
       </c>
       <c r="N31" t="n">
-        <v>2026.530953611375</v>
+        <v>364.8522778054789</v>
       </c>
       <c r="O31" t="n">
-        <v>2102.948185696631</v>
+        <v>441.2695098907348</v>
       </c>
       <c r="P31" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="Q31" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="R31" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="S31" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="T31" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="U31" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="V31" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="W31" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="X31" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="Y31" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1587.773049612605</v>
+        <v>1043.552242538784</v>
       </c>
       <c r="C32" t="n">
-        <v>1587.773049612605</v>
+        <v>1043.552242538784</v>
       </c>
       <c r="D32" t="n">
-        <v>1246.589049973992</v>
+        <v>998.3621845599494</v>
       </c>
       <c r="E32" t="n">
-        <v>871.3578256693087</v>
+        <v>623.1309602552664</v>
       </c>
       <c r="F32" t="n">
-        <v>464.0858563359617</v>
+        <v>215.8589909219194</v>
       </c>
       <c r="G32" t="n">
-        <v>42.84382959314222</v>
+        <v>215.8589909219194</v>
       </c>
       <c r="H32" t="n">
-        <v>42.84382959314222</v>
+        <v>215.8589909219194</v>
       </c>
       <c r="I32" t="n">
         <v>42.84382959314222</v>
@@ -6724,28 +6724,28 @@
         <v>2142.191479657111</v>
       </c>
       <c r="R32" t="n">
-        <v>2142.191479657111</v>
+        <v>2060.096347558938</v>
       </c>
       <c r="S32" t="n">
-        <v>1965.638948984154</v>
+        <v>2060.096347558938</v>
       </c>
       <c r="T32" t="n">
-        <v>1965.638948984154</v>
+        <v>2060.096347558938</v>
       </c>
       <c r="U32" t="n">
-        <v>1965.638948984154</v>
+        <v>1807.565179706747</v>
       </c>
       <c r="V32" t="n">
-        <v>1965.638948984154</v>
+        <v>1807.565179706747</v>
       </c>
       <c r="W32" t="n">
-        <v>1965.638948984154</v>
+        <v>1807.565179706747</v>
       </c>
       <c r="X32" t="n">
-        <v>1965.638948984154</v>
+        <v>1807.565179706747</v>
       </c>
       <c r="Y32" t="n">
-        <v>1965.638948984154</v>
+        <v>1421.418141910333</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>302.5021856014612</v>
+        <v>656.4085189017401</v>
       </c>
       <c r="C33" t="n">
-        <v>117.6385344137677</v>
+        <v>466.9962446347038</v>
       </c>
       <c r="D33" t="n">
-        <v>117.6385344137677</v>
+        <v>365.6766658901159</v>
       </c>
       <c r="E33" t="n">
-        <v>117.6385344137677</v>
+        <v>192.1134620115303</v>
       </c>
       <c r="F33" t="n">
-        <v>117.6385344137677</v>
+        <v>192.1134620115303</v>
       </c>
       <c r="G33" t="n">
-        <v>117.6385344137677</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="H33" t="n">
-        <v>117.6385344137677</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="I33" t="n">
         <v>42.84382959314222</v>
@@ -6788,16 +6788,16 @@
         <v>599.3995611992159</v>
       </c>
       <c r="M33" t="n">
-        <v>1023.809454792889</v>
+        <v>946.4517467285646</v>
       </c>
       <c r="N33" t="n">
-        <v>1477.872104965815</v>
+        <v>1400.51439690149</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.503639174576</v>
+        <v>1760.145931110251</v>
       </c>
       <c r="P33" t="n">
-        <v>2104.063149307111</v>
+        <v>2026.705441242787</v>
       </c>
       <c r="Q33" t="n">
         <v>2142.191479657111</v>
@@ -6806,25 +6806,25 @@
         <v>2066.798067524172</v>
       </c>
       <c r="S33" t="n">
-        <v>1891.427587150828</v>
+        <v>2066.798067524172</v>
       </c>
       <c r="T33" t="n">
-        <v>1678.225020517639</v>
+        <v>1853.595500890983</v>
       </c>
       <c r="U33" t="n">
-        <v>1438.665013342447</v>
+        <v>1614.035493715791</v>
       </c>
       <c r="V33" t="n">
-        <v>1195.585295246081</v>
+        <v>1370.955775619425</v>
       </c>
       <c r="W33" t="n">
-        <v>926.1867259763723</v>
+        <v>1101.557206349716</v>
       </c>
       <c r="X33" t="n">
-        <v>706.6787315930686</v>
+        <v>882.0492119664125</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.0380385283963</v>
+        <v>656.4085189017401</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>332.6001846062086</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="C34" t="n">
-        <v>332.6001846062086</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="D34" t="n">
-        <v>185.9510429388241</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="E34" t="n">
         <v>42.84382959314222</v>
@@ -6885,25 +6885,25 @@
         <v>480.5128038512147</v>
       </c>
       <c r="S34" t="n">
-        <v>480.5128038512147</v>
+        <v>267.0048956620741</v>
       </c>
       <c r="T34" t="n">
-        <v>480.5128038512147</v>
+        <v>267.0048956620741</v>
       </c>
       <c r="U34" t="n">
-        <v>480.5128038512147</v>
+        <v>267.0048956620741</v>
       </c>
       <c r="V34" t="n">
-        <v>480.5128038512147</v>
+        <v>267.0048956620741</v>
       </c>
       <c r="W34" t="n">
-        <v>480.5128038512147</v>
+        <v>267.0048956620741</v>
       </c>
       <c r="X34" t="n">
-        <v>480.5128038512147</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="Y34" t="n">
-        <v>332.6001846062086</v>
+        <v>42.84382959314222</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1378.178542489149</v>
+        <v>1246.589049973992</v>
       </c>
       <c r="C35" t="n">
-        <v>1378.178542489149</v>
+        <v>1246.589049973992</v>
       </c>
       <c r="D35" t="n">
-        <v>1378.178542489149</v>
+        <v>1246.589049973992</v>
       </c>
       <c r="E35" t="n">
-        <v>1002.947318184466</v>
+        <v>871.3578256693087</v>
       </c>
       <c r="F35" t="n">
-        <v>595.6753488511187</v>
+        <v>464.0858563359617</v>
       </c>
       <c r="G35" t="n">
-        <v>174.4333221082992</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="H35" t="n">
         <v>42.84382959314222</v>
@@ -6943,7 +6943,7 @@
         <v>339.890803202651</v>
       </c>
       <c r="L35" t="n">
-        <v>669.1629480618874</v>
+        <v>669.1629480618876</v>
       </c>
       <c r="M35" t="n">
         <v>1064.417612852395</v>
@@ -6964,25 +6964,25 @@
         <v>2142.191479657111</v>
       </c>
       <c r="S35" t="n">
-        <v>2142.191479657111</v>
+        <v>2079.25314297422</v>
       </c>
       <c r="T35" t="n">
-        <v>2142.191479657111</v>
+        <v>1862.537100952149</v>
       </c>
       <c r="U35" t="n">
-        <v>2142.191479657111</v>
+        <v>1610.005933099957</v>
       </c>
       <c r="V35" t="n">
-        <v>2142.191479657111</v>
+        <v>1610.005933099957</v>
       </c>
       <c r="W35" t="n">
-        <v>2142.191479657111</v>
+        <v>1610.005933099957</v>
       </c>
       <c r="X35" t="n">
-        <v>2142.191479657111</v>
+        <v>1246.589049973992</v>
       </c>
       <c r="Y35" t="n">
-        <v>1756.044441860697</v>
+        <v>1246.589049973992</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>876.2967726788764</v>
+        <v>573.8859817330124</v>
       </c>
       <c r="C36" t="n">
-        <v>686.8844984118401</v>
+        <v>384.4737074659761</v>
       </c>
       <c r="D36" t="n">
-        <v>526.1043821728719</v>
+        <v>384.4737074659761</v>
       </c>
       <c r="E36" t="n">
-        <v>352.5411782942863</v>
+        <v>384.4737074659761</v>
       </c>
       <c r="F36" t="n">
-        <v>192.1134620115303</v>
+        <v>384.4737074659761</v>
       </c>
       <c r="G36" t="n">
-        <v>42.84382959314222</v>
+        <v>235.204075047588</v>
       </c>
       <c r="H36" t="n">
-        <v>42.84382959314222</v>
+        <v>117.6385344137677</v>
       </c>
       <c r="I36" t="n">
         <v>42.84382959314222</v>
@@ -7034,7 +7034,7 @@
         <v>1837.503639174576</v>
       </c>
       <c r="P36" t="n">
-        <v>2026.705441242787</v>
+        <v>2104.063149307111</v>
       </c>
       <c r="Q36" t="n">
         <v>2142.191479657111</v>
@@ -7043,25 +7043,25 @@
         <v>2066.798067524172</v>
       </c>
       <c r="S36" t="n">
-        <v>2066.798067524172</v>
+        <v>1891.427587150828</v>
       </c>
       <c r="T36" t="n">
-        <v>1853.595500890983</v>
+        <v>1678.225020517639</v>
       </c>
       <c r="U36" t="n">
-        <v>1853.595500890983</v>
+        <v>1438.665013342447</v>
       </c>
       <c r="V36" t="n">
-        <v>1769.379882323496</v>
+        <v>1197.570522107924</v>
       </c>
       <c r="W36" t="n">
-        <v>1499.981313053788</v>
+        <v>1197.570522107924</v>
       </c>
       <c r="X36" t="n">
-        <v>1280.473318670484</v>
+        <v>978.0625277246199</v>
       </c>
       <c r="Y36" t="n">
-        <v>1054.832625605811</v>
+        <v>752.4218346599475</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="C37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="D37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="E37" t="n">
-        <v>1999.084266311429</v>
+        <v>337.4055905055329</v>
       </c>
       <c r="F37" t="n">
-        <v>1858.754082252392</v>
+        <v>197.0754064464958</v>
       </c>
       <c r="G37" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="H37" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="I37" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="J37" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="K37" t="n">
-        <v>1731.474026641266</v>
+        <v>69.79535083536993</v>
       </c>
       <c r="L37" t="n">
-        <v>1819.049940655706</v>
+        <v>157.3712648498092</v>
       </c>
       <c r="M37" t="n">
-        <v>1919.982352584071</v>
+        <v>258.3036767781742</v>
       </c>
       <c r="N37" t="n">
-        <v>2026.530953611375</v>
+        <v>364.8522778054789</v>
       </c>
       <c r="O37" t="n">
-        <v>2102.948185696631</v>
+        <v>441.2695098907348</v>
       </c>
       <c r="P37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="Q37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="R37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="S37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="T37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="U37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="V37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="W37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="X37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="Y37" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512147</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1378.178542489149</v>
+        <v>755.2463748243066</v>
       </c>
       <c r="C38" t="n">
-        <v>1024.435615841493</v>
+        <v>755.2463748243066</v>
       </c>
       <c r="D38" t="n">
-        <v>998.3621845599494</v>
+        <v>755.2463748243066</v>
       </c>
       <c r="E38" t="n">
-        <v>623.1309602552664</v>
+        <v>464.0858563359617</v>
       </c>
       <c r="F38" t="n">
-        <v>215.8589909219194</v>
+        <v>464.0858563359617</v>
       </c>
       <c r="G38" t="n">
-        <v>215.8589909219194</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="H38" t="n">
-        <v>215.8589909219194</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="I38" t="n">
-        <v>42.84382959314222</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="J38" t="n">
-        <v>118.7948485170688</v>
+        <v>118.7948485170696</v>
       </c>
       <c r="K38" t="n">
-        <v>339.8908032026508</v>
+        <v>339.8908032026518</v>
       </c>
       <c r="L38" t="n">
-        <v>669.1629480618872</v>
+        <v>669.1629480618883</v>
       </c>
       <c r="M38" t="n">
-        <v>1064.417612852395</v>
+        <v>1064.417612852396</v>
       </c>
       <c r="N38" t="n">
-        <v>1459.225475328248</v>
+        <v>1459.225475328249</v>
       </c>
       <c r="O38" t="n">
-        <v>1795.121985683489</v>
+        <v>1795.12198568349</v>
       </c>
       <c r="P38" t="n">
-        <v>2037.654313415861</v>
+        <v>2037.654313415862</v>
       </c>
       <c r="Q38" t="n">
-        <v>2142.191479657111</v>
+        <v>2142.191479657112</v>
       </c>
       <c r="R38" t="n">
-        <v>2142.191479657111</v>
+        <v>2060.096347558939</v>
       </c>
       <c r="S38" t="n">
-        <v>2142.191479657111</v>
+        <v>2060.096347558939</v>
       </c>
       <c r="T38" t="n">
-        <v>2142.191479657111</v>
+        <v>1843.380305536868</v>
       </c>
       <c r="U38" t="n">
-        <v>2142.191479657111</v>
+        <v>1843.380305536868</v>
       </c>
       <c r="V38" t="n">
-        <v>2142.191479657111</v>
+        <v>1519.259311992269</v>
       </c>
       <c r="W38" t="n">
-        <v>2142.191479657111</v>
+        <v>1519.259311992269</v>
       </c>
       <c r="X38" t="n">
-        <v>2142.191479657111</v>
+        <v>1519.259311992269</v>
       </c>
       <c r="Y38" t="n">
-        <v>1756.044441860697</v>
+        <v>1133.112274195855</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>769.6340172945252</v>
+        <v>1068.657018133322</v>
       </c>
       <c r="C39" t="n">
-        <v>580.2217430274889</v>
+        <v>879.2447438662858</v>
       </c>
       <c r="D39" t="n">
-        <v>580.2217430274889</v>
+        <v>718.4646276273176</v>
       </c>
       <c r="E39" t="n">
         <v>544.901423748732</v>
@@ -7250,10 +7250,10 @@
         <v>117.6385344137677</v>
       </c>
       <c r="I39" t="n">
-        <v>42.84382959314222</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="J39" t="n">
-        <v>42.84382959314222</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="K39" t="n">
         <v>235.5018060230543</v>
@@ -7274,31 +7274,31 @@
         <v>2065.504361246576</v>
       </c>
       <c r="Q39" t="n">
-        <v>2142.191479657111</v>
+        <v>2142.191479657112</v>
       </c>
       <c r="R39" t="n">
-        <v>2142.191479657111</v>
+        <v>2142.191479657112</v>
       </c>
       <c r="S39" t="n">
-        <v>1966.820999283767</v>
+        <v>2142.191479657112</v>
       </c>
       <c r="T39" t="n">
-        <v>1966.820999283767</v>
+        <v>2142.191479657112</v>
       </c>
       <c r="U39" t="n">
-        <v>1727.260992108576</v>
+        <v>1902.63147248192</v>
       </c>
       <c r="V39" t="n">
-        <v>1484.18127401221</v>
+        <v>1659.551754385554</v>
       </c>
       <c r="W39" t="n">
-        <v>1214.782704742501</v>
+        <v>1390.153185115846</v>
       </c>
       <c r="X39" t="n">
-        <v>995.2747103591976</v>
+        <v>1390.153185115846</v>
       </c>
       <c r="Y39" t="n">
-        <v>769.6340172945252</v>
+        <v>1164.512492051173</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.84382959314222</v>
+        <v>187.2696653771386</v>
       </c>
       <c r="C40" t="n">
-        <v>42.84382959314222</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="D40" t="n">
-        <v>42.84382959314222</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="E40" t="n">
-        <v>42.84382959314222</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="F40" t="n">
-        <v>42.84382959314222</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="G40" t="n">
-        <v>42.84382959314222</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="H40" t="n">
-        <v>42.84382959314222</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="I40" t="n">
-        <v>42.84382959314222</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="J40" t="n">
-        <v>42.84382959314222</v>
+        <v>42.84382959314224</v>
       </c>
       <c r="K40" t="n">
         <v>69.79535083536993</v>
@@ -7362,22 +7362,22 @@
         <v>480.5128038512147</v>
       </c>
       <c r="T40" t="n">
-        <v>334.3714118021217</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="U40" t="n">
-        <v>42.84382959314222</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="V40" t="n">
-        <v>42.84382959314222</v>
+        <v>480.5128038512147</v>
       </c>
       <c r="W40" t="n">
-        <v>42.84382959314222</v>
+        <v>187.2696653771386</v>
       </c>
       <c r="X40" t="n">
-        <v>42.84382959314222</v>
+        <v>187.2696653771386</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.84382959314222</v>
+        <v>187.2696653771386</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1113.001980184094</v>
+        <v>805.2698559745752</v>
       </c>
       <c r="C41" t="n">
-        <v>759.2590535364386</v>
+        <v>805.2698559745752</v>
       </c>
       <c r="D41" t="n">
-        <v>418.0750538978252</v>
+        <v>464.0858563359617</v>
       </c>
       <c r="E41" t="n">
-        <v>42.84382959314222</v>
+        <v>464.0858563359617</v>
       </c>
       <c r="F41" t="n">
-        <v>42.84382959314222</v>
+        <v>464.0858563359617</v>
       </c>
       <c r="G41" t="n">
         <v>42.84382959314222</v>
@@ -7411,13 +7411,13 @@
         <v>42.84382959314222</v>
       </c>
       <c r="J41" t="n">
-        <v>118.794848517069</v>
+        <v>118.7948485170688</v>
       </c>
       <c r="K41" t="n">
-        <v>339.8908032026509</v>
+        <v>339.8908032026507</v>
       </c>
       <c r="L41" t="n">
-        <v>669.1629480618872</v>
+        <v>669.1629480618869</v>
       </c>
       <c r="M41" t="n">
         <v>1064.417612852395</v>
@@ -7438,25 +7438,25 @@
         <v>2142.191479657111</v>
       </c>
       <c r="S41" t="n">
-        <v>2142.191479657111</v>
+        <v>1954.005332455017</v>
       </c>
       <c r="T41" t="n">
-        <v>2142.191479657111</v>
+        <v>1954.005332455017</v>
       </c>
       <c r="U41" t="n">
-        <v>2142.191479657111</v>
+        <v>1701.474164602826</v>
       </c>
       <c r="V41" t="n">
-        <v>2142.191479657111</v>
+        <v>1377.353171058228</v>
       </c>
       <c r="W41" t="n">
-        <v>2142.191479657111</v>
+        <v>1036.043611638261</v>
       </c>
       <c r="X41" t="n">
-        <v>1778.774596531145</v>
+        <v>1036.043611638261</v>
       </c>
       <c r="Y41" t="n">
-        <v>1490.867879555643</v>
+        <v>805.2698559745752</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>302.5021856014607</v>
+        <v>766.4686447409335</v>
       </c>
       <c r="C42" t="n">
-        <v>113.0899113344244</v>
+        <v>577.0563704738972</v>
       </c>
       <c r="D42" t="n">
-        <v>42.84382959314222</v>
+        <v>416.276254234929</v>
       </c>
       <c r="E42" t="n">
-        <v>42.84382959314222</v>
+        <v>242.7130503563434</v>
       </c>
       <c r="F42" t="n">
-        <v>42.84382959314222</v>
+        <v>160.4093702269625</v>
       </c>
       <c r="G42" t="n">
-        <v>42.84382959314222</v>
+        <v>160.4093702269625</v>
       </c>
       <c r="H42" t="n">
         <v>42.84382959314222</v>
@@ -7514,28 +7514,28 @@
         <v>2142.191479657111</v>
       </c>
       <c r="R42" t="n">
-        <v>2066.798067524171</v>
+        <v>2142.191479657111</v>
       </c>
       <c r="S42" t="n">
-        <v>1891.427587150827</v>
+        <v>2142.191479657111</v>
       </c>
       <c r="T42" t="n">
-        <v>1678.225020517638</v>
+        <v>2142.191479657111</v>
       </c>
       <c r="U42" t="n">
-        <v>1438.665013342446</v>
+        <v>1902.631472481919</v>
       </c>
       <c r="V42" t="n">
-        <v>1195.58529524608</v>
+        <v>1659.551754385553</v>
       </c>
       <c r="W42" t="n">
-        <v>926.1867259763718</v>
+        <v>1390.153185115845</v>
       </c>
       <c r="X42" t="n">
-        <v>706.6787315930682</v>
+        <v>1170.645190732541</v>
       </c>
       <c r="Y42" t="n">
-        <v>481.0380385283958</v>
+        <v>945.0044976678687</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1704.522505399039</v>
+        <v>183.1740136521793</v>
       </c>
       <c r="C43" t="n">
-        <v>1704.522505399039</v>
+        <v>183.1740136521793</v>
       </c>
       <c r="D43" t="n">
-        <v>1704.522505399039</v>
+        <v>183.1740136521793</v>
       </c>
       <c r="E43" t="n">
-        <v>1704.522505399039</v>
+        <v>183.1740136521793</v>
       </c>
       <c r="F43" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="G43" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="H43" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="I43" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="J43" t="n">
-        <v>1704.522505399039</v>
+        <v>42.84382959314222</v>
       </c>
       <c r="K43" t="n">
-        <v>1731.474026641266</v>
+        <v>69.79535083536989</v>
       </c>
       <c r="L43" t="n">
-        <v>1819.049940655706</v>
+        <v>157.3712648498091</v>
       </c>
       <c r="M43" t="n">
-        <v>1919.98235258407</v>
+        <v>258.3036767781741</v>
       </c>
       <c r="N43" t="n">
-        <v>2026.530953611375</v>
+        <v>364.8522778054788</v>
       </c>
       <c r="O43" t="n">
-        <v>2102.948185696631</v>
+        <v>441.2695098907346</v>
       </c>
       <c r="P43" t="n">
-        <v>2142.191479657111</v>
+        <v>480.5128038512146</v>
       </c>
       <c r="Q43" t="n">
-        <v>2142.191479657111</v>
+        <v>420.6289977964708</v>
       </c>
       <c r="R43" t="n">
-        <v>2142.191479657111</v>
+        <v>420.6289977964708</v>
       </c>
       <c r="S43" t="n">
-        <v>2142.191479657111</v>
+        <v>420.6289977964708</v>
       </c>
       <c r="T43" t="n">
-        <v>2142.191479657111</v>
+        <v>420.6289977964708</v>
       </c>
       <c r="U43" t="n">
-        <v>1928.683571467971</v>
+        <v>362.5850446268945</v>
       </c>
       <c r="V43" t="n">
-        <v>1928.683571467971</v>
+        <v>362.5850446268945</v>
       </c>
       <c r="W43" t="n">
-        <v>1928.683571467971</v>
+        <v>362.5850446268945</v>
       </c>
       <c r="X43" t="n">
-        <v>1704.522505399039</v>
+        <v>362.5850446268945</v>
       </c>
       <c r="Y43" t="n">
-        <v>1704.522505399039</v>
+        <v>362.5850446268945</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>871.3578256693087</v>
+        <v>1332.639750342557</v>
       </c>
       <c r="C44" t="n">
-        <v>871.3578256693087</v>
+        <v>1332.639750342557</v>
       </c>
       <c r="D44" t="n">
-        <v>871.3578256693087</v>
+        <v>991.455750703944</v>
       </c>
       <c r="E44" t="n">
-        <v>871.3578256693087</v>
+        <v>616.224526399261</v>
       </c>
       <c r="F44" t="n">
         <v>464.0858563359617</v>
@@ -7648,13 +7648,13 @@
         <v>42.84382959314222</v>
       </c>
       <c r="J44" t="n">
-        <v>118.7948485170689</v>
+        <v>118.7948485170692</v>
       </c>
       <c r="K44" t="n">
-        <v>339.8908032026509</v>
+        <v>339.8908032026511</v>
       </c>
       <c r="L44" t="n">
-        <v>669.1629480618872</v>
+        <v>669.1629480618874</v>
       </c>
       <c r="M44" t="n">
         <v>1064.417612852395</v>
@@ -7672,28 +7672,28 @@
         <v>2142.191479657111</v>
       </c>
       <c r="R44" t="n">
-        <v>2142.191479657111</v>
+        <v>2060.096347558938</v>
       </c>
       <c r="S44" t="n">
-        <v>2142.191479657111</v>
+        <v>2060.096347558938</v>
       </c>
       <c r="T44" t="n">
-        <v>2142.191479657111</v>
+        <v>2060.096347558938</v>
       </c>
       <c r="U44" t="n">
-        <v>2142.191479657111</v>
+        <v>2060.096347558938</v>
       </c>
       <c r="V44" t="n">
-        <v>1953.95016758679</v>
+        <v>2060.096347558938</v>
       </c>
       <c r="W44" t="n">
-        <v>1612.640608166823</v>
+        <v>1718.786788138971</v>
       </c>
       <c r="X44" t="n">
-        <v>1249.223725040858</v>
+        <v>1718.786788138971</v>
       </c>
       <c r="Y44" t="n">
-        <v>1249.223725040858</v>
+        <v>1332.639750342557</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>553.2660781077443</v>
+        <v>603.536290799073</v>
       </c>
       <c r="C45" t="n">
-        <v>377.187149710696</v>
+        <v>414.1240165320366</v>
       </c>
       <c r="D45" t="n">
-        <v>216.4070334717277</v>
+        <v>253.3439002930684</v>
       </c>
       <c r="E45" t="n">
-        <v>42.84382959314222</v>
+        <v>79.78069641448286</v>
       </c>
       <c r="F45" t="n">
         <v>42.84382959314222</v>
@@ -7754,25 +7754,25 @@
         <v>2142.191479657111</v>
       </c>
       <c r="S45" t="n">
-        <v>2142.191479657111</v>
+        <v>1966.820999283767</v>
       </c>
       <c r="T45" t="n">
-        <v>1928.988913023922</v>
+        <v>1753.618432650578</v>
       </c>
       <c r="U45" t="n">
-        <v>1689.42890584873</v>
+        <v>1514.058425475386</v>
       </c>
       <c r="V45" t="n">
-        <v>1446.349187752364</v>
+        <v>1270.97870737902</v>
       </c>
       <c r="W45" t="n">
-        <v>1176.950618482655</v>
+        <v>1001.580138109312</v>
       </c>
       <c r="X45" t="n">
-        <v>957.4426240993519</v>
+        <v>782.072143726008</v>
       </c>
       <c r="Y45" t="n">
-        <v>731.8019310346795</v>
+        <v>782.072143726008</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>357.6315378988827</v>
+        <v>480.5128038512146</v>
       </c>
       <c r="C46" t="n">
-        <v>189.4929712605268</v>
+        <v>480.5128038512146</v>
       </c>
       <c r="D46" t="n">
-        <v>42.84382959314222</v>
+        <v>333.86366218383</v>
       </c>
       <c r="E46" t="n">
-        <v>42.84382959314222</v>
+        <v>333.86366218383</v>
       </c>
       <c r="F46" t="n">
-        <v>42.84382959314222</v>
+        <v>333.86366218383</v>
       </c>
       <c r="G46" t="n">
-        <v>42.84382959314222</v>
+        <v>203.0575193320216</v>
       </c>
       <c r="H46" t="n">
         <v>42.84382959314222</v>
@@ -7839,19 +7839,19 @@
         <v>480.5128038512146</v>
       </c>
       <c r="U46" t="n">
-        <v>357.6315378988827</v>
+        <v>480.5128038512146</v>
       </c>
       <c r="V46" t="n">
-        <v>357.6315378988827</v>
+        <v>480.5128038512146</v>
       </c>
       <c r="W46" t="n">
-        <v>357.6315378988827</v>
+        <v>480.5128038512146</v>
       </c>
       <c r="X46" t="n">
-        <v>357.6315378988827</v>
+        <v>480.5128038512146</v>
       </c>
       <c r="Y46" t="n">
-        <v>357.6315378988827</v>
+        <v>480.5128038512146</v>
       </c>
     </row>
   </sheetData>
@@ -8777,16 +8777,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>269.9708882526448</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>252.098905607985</v>
+        <v>239.5487420989436</v>
       </c>
       <c r="O12" t="n">
-        <v>7.027508785057847</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>172.038096423256</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9008,19 +9008,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>54.865789686125</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>74.29117589298126</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>269.9708882526448</v>
+        <v>235.6451105972215</v>
       </c>
       <c r="N15" t="n">
         <v>252.098905607985</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913207</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9245,7 +9245,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9254,13 +9254,13 @@
         <v>269.9708882526448</v>
       </c>
       <c r="N18" t="n">
-        <v>201.3940163681488</v>
+        <v>252.098905607985</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>29.46478203976346</v>
+        <v>95.26757669795323</v>
       </c>
       <c r="Q18" t="n">
         <v>81.213011969896</v>
@@ -9488,13 +9488,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>269.9708882526448</v>
       </c>
       <c r="N21" t="n">
-        <v>239.5487420989436</v>
+        <v>217.7731279525617</v>
       </c>
       <c r="O21" t="n">
-        <v>255.2227828913207</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9716,7 +9716,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>42.75872013236668</v>
       </c>
       <c r="K24" t="n">
         <v>171.373473584151</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.99098339795705</v>
+        <v>96.93925416617454</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9956,7 +9956,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>93.23437452927747</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9965,7 +9965,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>310.6138585746227</v>
+        <v>232.4747595197493</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -10436,7 +10436,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
-        <v>301.77688131</v>
+        <v>223.6377822551265</v>
       </c>
       <c r="N33" t="n">
         <v>310.6138585746227</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.99098339795702</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10682,10 +10682,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>128.2247750238058</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>57.99098339795702</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.93925416617452</v>
+        <v>96.93925416617499</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315041</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11317,7 +11317,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476184</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>132.4406685261713</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>75.85652843060865</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
@@ -23269,10 +23269,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>128.8502806894433</v>
       </c>
       <c r="G11" t="n">
-        <v>417.9335161168677</v>
+        <v>143.5845471662975</v>
       </c>
       <c r="H11" t="n">
         <v>337.7565816866972</v>
@@ -23314,7 +23314,7 @@
         <v>218.5057460574135</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0781689449873</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23323,10 +23323,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>85.43374534413596</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>107.9365984678797</v>
+        <v>116.3681955612048</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -23345,7 +23345,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>85.26646464774359</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>90.18938720560971</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>93.23694401510255</v>
       </c>
       <c r="R13" t="n">
-        <v>55.78133788242909</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S13" t="n">
-        <v>228.3660933928399</v>
+        <v>98.96362010093003</v>
       </c>
       <c r="T13" t="n">
         <v>222.0276946227434</v>
@@ -23500,16 +23500,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>63.42319069165711</v>
       </c>
       <c r="E14" t="n">
-        <v>176.1690927326219</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>137.2818777827685</v>
       </c>
       <c r="G14" t="n">
-        <v>143.5845471662975</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H14" t="n">
         <v>337.7565816866972</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T14" t="n">
         <v>218.5057460574135</v>
@@ -23563,7 +23563,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>107.9365984678797</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -23582,22 +23582,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>148.2605703896413</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>121.0607743439406</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>90.69820171619743</v>
       </c>
       <c r="J15" t="n">
-        <v>6.744564135339218</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>213.0199265699567</v>
       </c>
       <c r="U15" t="n">
-        <v>51.73210243612704</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>24.79150974773708</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23703,13 +23703,13 @@
         <v>185.183811174339</v>
       </c>
       <c r="S16" t="n">
-        <v>228.3660933928399</v>
+        <v>98.96362010093003</v>
       </c>
       <c r="T16" t="n">
         <v>222.0276946227434</v>
       </c>
       <c r="U16" t="n">
-        <v>159.2319492448143</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23734,19 +23734,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>75.85652843060865</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>97.12994311106598</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>128.8502806894433</v>
       </c>
       <c r="G17" t="n">
-        <v>176.2869442652057</v>
+        <v>152.0161442596227</v>
       </c>
       <c r="H17" t="n">
         <v>337.7565816866972</v>
@@ -23788,7 +23788,7 @@
         <v>218.5057460574135</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0781689449873</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23797,7 +23797,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>85.43374534413596</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.2605703896413</v>
+        <v>4.563627258334634</v>
       </c>
       <c r="H18" t="n">
-        <v>121.0607743439406</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>90.69820171619743</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>104.6672283897153</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>182.6000704870501</v>
@@ -23867,19 +23867,19 @@
         <v>213.0199265699567</v>
       </c>
       <c r="U18" t="n">
-        <v>120.5534515117296</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>141.4513913881607</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23934,13 +23934,13 @@
         <v>9.399185363825382</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R19" t="n">
         <v>185.183811174339</v>
       </c>
       <c r="S19" t="n">
-        <v>228.3660933928399</v>
+        <v>98.96362010093003</v>
       </c>
       <c r="T19" t="n">
         <v>222.0276946227434</v>
@@ -23974,19 +23974,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>63.42319069165711</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>97.12994311106598</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>128.8502806894433</v>
       </c>
       <c r="G20" t="n">
         <v>176.2869442652057</v>
       </c>
       <c r="H20" t="n">
-        <v>63.40761273612709</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I20" t="n">
         <v>206.1329861685091</v>
@@ -24028,10 +24028,10 @@
         <v>250.0781689449873</v>
       </c>
       <c r="V20" t="n">
-        <v>46.53081465858185</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>63.54749487519672</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>148.2605703896413</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>104.6672283897153</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>182.6000704870501</v>
       </c>
       <c r="T21" t="n">
-        <v>213.0199265699567</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>237.1962251491922</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>137.9285586274511</v>
+        <v>9.521585869617525</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -24180,13 +24180,13 @@
         <v>228.3660933928399</v>
       </c>
       <c r="T22" t="n">
-        <v>92.62522133083351</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U22" t="n">
         <v>288.6344225367242</v>
       </c>
       <c r="V22" t="n">
-        <v>245.1090151844499</v>
+        <v>115.70654189254</v>
       </c>
       <c r="W22" t="n">
         <v>290.3107070893353</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>63.67546937683289</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>268.5144151754096</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.0296064753912</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>328.4994170709269</v>
       </c>
       <c r="I23" t="n">
-        <v>171.2850097154894</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>81.27418077719113</v>
+        <v>81.27418077719111</v>
       </c>
       <c r="S23" t="n">
         <v>186.3042857300727</v>
@@ -24262,19 +24262,19 @@
         <v>214.5488816018505</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0058561736692</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>116.389885227482</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>74.04675777241926</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>74.63947801161036</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>173.6167755696106</v>
@@ -24344,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>133.1570467546725</v>
       </c>
       <c r="X24" t="n">
-        <v>108.7298466585629</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.8895142630938</v>
@@ -24387,7 +24387,7 @@
         <v>140.4561473706377</v>
       </c>
       <c r="J25" t="n">
-        <v>62.8834786339625</v>
+        <v>62.88347863396248</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.28496799419636</v>
+        <v>59.28496799419635</v>
       </c>
       <c r="R25" t="n">
         <v>166.9527316607789</v>
@@ -24417,16 +24417,16 @@
         <v>221.2999835207221</v>
       </c>
       <c r="T25" t="n">
-        <v>220.2952628857088</v>
+        <v>67.60600180088872</v>
       </c>
       <c r="U25" t="n">
         <v>288.6123063868897</v>
       </c>
       <c r="V25" t="n">
-        <v>102.1274377582936</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.0296064753912</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>328.4994170709269</v>
+        <v>91.66674993656088</v>
       </c>
       <c r="I26" t="n">
         <v>171.2850097154894</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>81.27418077719111</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>186.3042857300727</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>214.5488816018505</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0058561736692</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>63.67546937683289</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>3.234321116814868</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>116.389885227482</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>74.04675777241924</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>74.63947801161035</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,13 +24578,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1644071034397</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>62.54273548576822</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.8895142630938</v>
@@ -24621,10 +24621,10 @@
         <v>158.6115528414906</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>140.4561473706377</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>62.88347863396248</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>59.28496799419635</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>166.9527316607789</v>
       </c>
       <c r="S28" t="n">
-        <v>217.5850246648055</v>
+        <v>221.2999835207221</v>
       </c>
       <c r="T28" t="n">
         <v>220.2952628857088</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6123063868897</v>
+        <v>281.1056955527803</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.0296064753912</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>328.4994170709269</v>
       </c>
       <c r="I29" t="n">
-        <v>171.2850097154894</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>81.27418077719111</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>186.3042857300727</v>
       </c>
       <c r="T29" t="n">
-        <v>151.4308126410315</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>201.0568925334316</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22.66233132632743</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>142.179742553051</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>116.389885227482</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>74.04675777241924</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24821,10 +24821,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>70.82570325406049</v>
+        <v>21.45602121053784</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>158.6115528414906</v>
       </c>
       <c r="I31" t="n">
         <v>140.4561473706377</v>
@@ -24922,7 +24922,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>293.0340022431806</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.0296064753912</v>
       </c>
       <c r="H32" t="n">
         <v>328.4994170709269</v>
       </c>
       <c r="I32" t="n">
-        <v>171.2850097154894</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>81.27418077719111</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.51728036384492</v>
+        <v>186.3042857300727</v>
       </c>
       <c r="T32" t="n">
         <v>214.5488816018505</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0058561736692</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -24985,7 +24985,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>4.503136848549417</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>58.86593211943654</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>147.7769360942042</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>116.389885227482</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>74.04675777241924</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>173.6167755696106</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -25125,7 +25125,7 @@
         <v>166.9527316607789</v>
       </c>
       <c r="S34" t="n">
-        <v>221.2999835207221</v>
+        <v>9.927154413472948</v>
       </c>
       <c r="T34" t="n">
         <v>220.2952628857088</v>
@@ -25140,10 +25140,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.70777976161239</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
         <v>350.2054973811788</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>198.2258194809215</v>
+        <v>328.4994170709269</v>
       </c>
       <c r="I35" t="n">
         <v>171.2850097154894</v>
@@ -25204,13 +25204,13 @@
         <v>81.27418077719111</v>
       </c>
       <c r="S35" t="n">
-        <v>186.3042857300727</v>
+        <v>123.9953324140101</v>
       </c>
       <c r="T35" t="n">
-        <v>214.5488816018505</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0058561736692</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25219,10 +25219,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>116.389885227482</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>74.04675777241924</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>173.6167755696106</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1644071034397</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>157.2754585335907</v>
+        <v>1.965374593224226</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>15.20025317827359</v>
+        <v>15.20025317827375</v>
       </c>
       <c r="H37" t="n">
         <v>158.6115528414906</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>311.9594626734988</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>83.2299987581747</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.0296064753912</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>328.4994170709269</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>171.2850097154894</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>81.27418077719111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>186.3042857300727</v>
       </c>
       <c r="T38" t="n">
-        <v>214.5488816018505</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.0058561736692</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>81.85357521899304</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>136.8604557538304</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>74.63947801161035</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>173.6167755696106</v>
       </c>
       <c r="T39" t="n">
         <v>211.070540966857</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>23.47560354581594</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25602,16 +25602,16 @@
         <v>221.2999835207221</v>
       </c>
       <c r="T40" t="n">
-        <v>75.61528475710674</v>
+        <v>220.2952628857088</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>288.6123063868897</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.0296064753912</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>328.4994170709269</v>
@@ -25678,25 +25678,25 @@
         <v>81.27418077719113</v>
       </c>
       <c r="S41" t="n">
-        <v>186.3042857300727</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>214.5488816018505</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0058561736692</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.25791761270278</v>
+        <v>153.8195493114006</v>
       </c>
     </row>
     <row r="42">
@@ -25712,19 +25712,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>89.62869415270914</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>77.3427957918412</v>
       </c>
       <c r="G42" t="n">
         <v>147.7769360942042</v>
       </c>
       <c r="H42" t="n">
-        <v>116.389885227482</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>74.04675777241926</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>74.63947801161036</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>173.6167755696106</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.070540966857</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -25797,7 +25797,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.8895142630938</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.28496799419636</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>166.9527316607789</v>
@@ -25842,7 +25842,7 @@
         <v>220.2952628857088</v>
       </c>
       <c r="U43" t="n">
-        <v>77.2394772796407</v>
+        <v>231.1487927490091</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25851,7 +25851,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>252.5819662773472</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>81.27418077719113</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>186.3042857300727</v>
@@ -25924,16 +25924,16 @@
         <v>250.0058561736692</v>
       </c>
       <c r="V44" t="n">
-        <v>134.5208846595341</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>13.20001241128807</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>122.2559409668011</v>
       </c>
       <c r="G45" t="n">
         <v>147.7769360942042</v>
@@ -25994,7 +25994,7 @@
         <v>74.63947801161036</v>
       </c>
       <c r="S45" t="n">
-        <v>173.6167755696106</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8895142630938</v>
+        <v>38.39143283980354</v>
       </c>
       <c r="H46" t="n">
-        <v>158.6115528414906</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>140.4561473706377</v>
@@ -26079,7 +26079,7 @@
         <v>220.2952628857088</v>
       </c>
       <c r="U46" t="n">
-        <v>166.9598530940811</v>
+        <v>288.6123063868897</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>564912.7804323648</v>
+        <v>564912.7804323647</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>564912.7804323648</v>
+        <v>564912.7804323647</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>757854.2925776513</v>
+        <v>757854.2925776514</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>757854.2925776514</v>
+        <v>757854.2925776513</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>757854.2925776513</v>
+        <v>757854.2925776511</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>757854.2925776513</v>
+        <v>757854.2925776514</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>757854.2925776513</v>
+        <v>757854.2925776514</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>757854.2925776512</v>
+        <v>757854.2925776511</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>757854.2925776511</v>
+        <v>757854.2925776514</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95193.0560451601</v>
+        <v>95193.05604516009</v>
       </c>
       <c r="C2" t="n">
-        <v>99739.37101448725</v>
+        <v>99739.37101448727</v>
       </c>
       <c r="D2" t="n">
-        <v>99739.37101448726</v>
+        <v>99739.37101448727</v>
       </c>
       <c r="E2" t="n">
         <v>186154.278142744</v>
       </c>
       <c r="F2" t="n">
-        <v>186154.2781427439</v>
+        <v>186154.278142744</v>
       </c>
       <c r="G2" t="n">
         <v>186154.278142744</v>
@@ -26334,10 +26334,10 @@
         <v>186154.278142744</v>
       </c>
       <c r="I2" t="n">
+        <v>252401.0581826717</v>
+      </c>
+      <c r="J2" t="n">
         <v>252401.0581826716</v>
-      </c>
-      <c r="J2" t="n">
-        <v>252401.0581826717</v>
       </c>
       <c r="K2" t="n">
         <v>252401.0581826717</v>
@@ -26346,10 +26346,10 @@
         <v>252401.0581826716</v>
       </c>
       <c r="M2" t="n">
-        <v>252401.0581826716</v>
+        <v>252401.0581826717</v>
       </c>
       <c r="N2" t="n">
-        <v>252401.0581826717</v>
+        <v>252401.0581826718</v>
       </c>
       <c r="O2" t="n">
         <v>252401.0581826716</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>238712.0212727139</v>
+        <v>238712.021272714</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>27337.30268751784</v>
       </c>
       <c r="I4" t="n">
-        <v>29099.65651764493</v>
+        <v>29099.65651764492</v>
       </c>
       <c r="J4" t="n">
         <v>29099.65651764492</v>
@@ -26447,16 +26447,16 @@
         <v>29099.65651764492</v>
       </c>
       <c r="L4" t="n">
-        <v>29099.65651764493</v>
+        <v>29099.65651764492</v>
       </c>
       <c r="M4" t="n">
         <v>29099.65651764493</v>
       </c>
       <c r="N4" t="n">
+        <v>29099.65651764493</v>
+      </c>
+      <c r="O4" t="n">
         <v>29099.65651764492</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29099.65651764493</v>
       </c>
       <c r="P4" t="n">
         <v>29099.65651764493</v>
@@ -26505,7 +26505,7 @@
         <v>44574.25058241586</v>
       </c>
       <c r="N5" t="n">
-        <v>44574.25058241586</v>
+        <v>44574.25058241587</v>
       </c>
       <c r="O5" t="n">
         <v>44574.25058241585</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35122.94047706007</v>
+        <v>18318.47986921667</v>
       </c>
       <c r="C6" t="n">
-        <v>15480.22187580886</v>
+        <v>-1071.665678182988</v>
       </c>
       <c r="D6" t="n">
-        <v>39867.97124470511</v>
+        <v>23316.08369071326</v>
       </c>
       <c r="E6" t="n">
-        <v>-187446.4218368217</v>
+        <v>-199197.4812170216</v>
       </c>
       <c r="F6" t="n">
-        <v>135025.2940597199</v>
+        <v>123274.2346795201</v>
       </c>
       <c r="G6" t="n">
-        <v>135025.29405972</v>
+        <v>123274.2346795202</v>
       </c>
       <c r="H6" t="n">
-        <v>135025.29405972</v>
+        <v>123274.2346795202</v>
       </c>
       <c r="I6" t="n">
-        <v>-59984.87019010304</v>
+        <v>-68055.55290141804</v>
       </c>
       <c r="J6" t="n">
-        <v>178727.1510826109</v>
+        <v>170656.4683712959</v>
       </c>
       <c r="K6" t="n">
-        <v>178727.1510826109</v>
+        <v>170656.4683712959</v>
       </c>
       <c r="L6" t="n">
-        <v>178727.1510826109</v>
+        <v>170656.4683712959</v>
       </c>
       <c r="M6" t="n">
-        <v>110358.2906242529</v>
+        <v>102287.607912938</v>
       </c>
       <c r="N6" t="n">
-        <v>178727.1510826109</v>
+        <v>170656.468371296</v>
       </c>
       <c r="O6" t="n">
-        <v>178727.1510826108</v>
+        <v>170656.4683712959</v>
       </c>
       <c r="P6" t="n">
-        <v>178727.1510826109</v>
+        <v>170656.4683712959</v>
       </c>
     </row>
   </sheetData>
@@ -26758,7 +26758,7 @@
         <v>326.2047744638306</v>
       </c>
       <c r="I3" t="n">
-        <v>551.0522977810901</v>
+        <v>551.0522977810903</v>
       </c>
       <c r="J3" t="n">
         <v>551.0522977810903</v>
@@ -26825,7 +26825,7 @@
         <v>535.5478699142778</v>
       </c>
       <c r="N4" t="n">
-        <v>535.5478699142778</v>
+        <v>535.547869914278</v>
       </c>
       <c r="O4" t="n">
         <v>535.5478699142777</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>224.8475233172595</v>
+        <v>224.8475233172596</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.215285619220461</v>
+        <v>2.215285619220462</v>
       </c>
       <c r="H23" t="n">
         <v>22.68729384784156</v>
       </c>
       <c r="I23" t="n">
-        <v>85.40479883499691</v>
+        <v>85.40479883499694</v>
       </c>
       <c r="J23" t="n">
         <v>188.0195978243128</v>
@@ -32715,7 +32715,7 @@
         <v>281.792638085915</v>
       </c>
       <c r="L23" t="n">
-        <v>349.5886853551332</v>
+        <v>349.5886853551333</v>
       </c>
       <c r="M23" t="n">
         <v>388.9847709859451</v>
@@ -32730,16 +32730,16 @@
         <v>318.5608411509266</v>
       </c>
       <c r="Q23" t="n">
-        <v>239.2259249125937</v>
+        <v>239.2259249125938</v>
       </c>
       <c r="R23" t="n">
         <v>139.1559352783574</v>
       </c>
       <c r="S23" t="n">
-        <v>50.48082104798631</v>
+        <v>50.48082104798632</v>
       </c>
       <c r="T23" t="n">
-        <v>9.697412798137574</v>
+        <v>9.697412798137576</v>
       </c>
       <c r="U23" t="n">
         <v>0.1772228495376369</v>
@@ -32782,46 +32782,46 @@
         <v>1.185282300887628</v>
       </c>
       <c r="H24" t="n">
-        <v>11.44733169541472</v>
+        <v>11.44733169541473</v>
       </c>
       <c r="I24" t="n">
-        <v>40.80906167529772</v>
+        <v>40.80906167529773</v>
       </c>
       <c r="J24" t="n">
-        <v>111.9831844009666</v>
+        <v>111.9831844009667</v>
       </c>
       <c r="K24" t="n">
         <v>191.3970985604377</v>
       </c>
       <c r="L24" t="n">
-        <v>257.3570188835176</v>
+        <v>257.3570188835177</v>
       </c>
       <c r="M24" t="n">
         <v>300.3235022906941</v>
       </c>
       <c r="N24" t="n">
-        <v>308.2721717558572</v>
+        <v>308.2721717558573</v>
       </c>
       <c r="O24" t="n">
-        <v>282.0088112993471</v>
+        <v>282.0088112993472</v>
       </c>
       <c r="P24" t="n">
-        <v>226.3369334037085</v>
+        <v>226.3369334037086</v>
       </c>
       <c r="Q24" t="n">
         <v>151.3002459869892</v>
       </c>
       <c r="R24" t="n">
-        <v>73.59147478668977</v>
+        <v>73.59147478668979</v>
       </c>
       <c r="S24" t="n">
         <v>22.01609887832939</v>
       </c>
       <c r="T24" t="n">
-        <v>4.777519449630393</v>
+        <v>4.777519449630394</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07797909874260713</v>
+        <v>0.07797909874260714</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9937008648511461</v>
+        <v>0.9937008648511463</v>
       </c>
       <c r="H25" t="n">
-        <v>8.834904052949287</v>
+        <v>8.834904052949289</v>
       </c>
       <c r="I25" t="n">
         <v>29.88329509934175</v>
       </c>
       <c r="J25" t="n">
-        <v>70.25465114497602</v>
+        <v>70.25465114497604</v>
       </c>
       <c r="K25" t="n">
         <v>115.4499732072513</v>
@@ -32879,7 +32879,7 @@
         <v>155.7671273875301</v>
       </c>
       <c r="N25" t="n">
-        <v>152.0633332549032</v>
+        <v>152.0633332549033</v>
       </c>
       <c r="O25" t="n">
         <v>140.4551004245966</v>
@@ -32888,19 +32888,19 @@
         <v>120.1836027816331</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.20889696494461</v>
+        <v>83.20889696494463</v>
       </c>
       <c r="R25" t="n">
-        <v>44.68040434139788</v>
+        <v>44.6804043413979</v>
       </c>
       <c r="S25" t="n">
         <v>17.3174959810877</v>
       </c>
       <c r="T25" t="n">
-        <v>4.245812786182168</v>
+        <v>4.245812786182169</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05420186535551712</v>
+        <v>0.05420186535551713</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>223.615062310402</v>
       </c>
       <c r="M12" t="n">
-        <v>274.3489689505702</v>
+        <v>4.378080697925299</v>
       </c>
       <c r="N12" t="n">
-        <v>274.3489689505702</v>
+        <v>261.7988054415288</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>248.1952741062629</v>
       </c>
       <c r="P12" t="n">
-        <v>142.5733143834925</v>
+        <v>176.8990920389158</v>
       </c>
       <c r="Q12" t="n">
         <v>54.91707048293421</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>116.507683898026</v>
       </c>
       <c r="L15" t="n">
-        <v>57.60169444674169</v>
+        <v>223.615062310402</v>
       </c>
       <c r="M15" t="n">
-        <v>274.3489689505702</v>
+        <v>240.0231912951468</v>
       </c>
       <c r="N15" t="n">
         <v>274.3489689505702</v>
       </c>
       <c r="O15" t="n">
-        <v>248.1952741062629</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>176.8990920389158</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>116.507683898026</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>223.615062310402</v>
@@ -35974,13 +35974,13 @@
         <v>274.3489689505702</v>
       </c>
       <c r="N18" t="n">
-        <v>223.644079710734</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="O18" t="n">
         <v>248.1952741062629</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.80279465818977</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>223.615062310402</v>
       </c>
       <c r="M21" t="n">
-        <v>4.378080697925299</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="N21" t="n">
-        <v>261.7988054415288</v>
+        <v>240.0231912951469</v>
       </c>
       <c r="O21" t="n">
-        <v>248.1952741062629</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>176.8990920389158</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>76.71820093325933</v>
+        <v>76.71820093325935</v>
       </c>
       <c r="K23" t="n">
-        <v>223.3292471571534</v>
+        <v>223.3292471571535</v>
       </c>
       <c r="L23" t="n">
         <v>332.5981261204407</v>
       </c>
       <c r="M23" t="n">
-        <v>399.2471361520278</v>
+        <v>399.2471361520279</v>
       </c>
       <c r="N23" t="n">
         <v>398.7958206826801</v>
       </c>
       <c r="O23" t="n">
-        <v>339.2894043992329</v>
+        <v>339.289404399233</v>
       </c>
       <c r="P23" t="n">
-        <v>244.9821492246185</v>
+        <v>244.9821492246186</v>
       </c>
       <c r="Q23" t="n">
-        <v>105.5930972133836</v>
+        <v>105.5930972133837</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.94827076821822</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>194.6040165958707</v>
       </c>
       <c r="L24" t="n">
-        <v>328.6252193087126</v>
+        <v>328.6252193087128</v>
       </c>
       <c r="M24" t="n">
         <v>428.6968622158317</v>
       </c>
       <c r="N24" t="n">
-        <v>458.6491415888132</v>
+        <v>458.6491415888133</v>
       </c>
       <c r="O24" t="n">
-        <v>363.2641759684457</v>
+        <v>363.2641759684458</v>
       </c>
       <c r="P24" t="n">
-        <v>269.2520304369049</v>
+        <v>269.252030436905</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.51346499999994</v>
+        <v>77.46173576821745</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>27.223758830533</v>
+        <v>27.22375883053303</v>
       </c>
       <c r="L25" t="n">
-        <v>88.46051920650424</v>
+        <v>88.46051920650427</v>
       </c>
       <c r="M25" t="n">
         <v>101.9519312407727</v>
       </c>
       <c r="N25" t="n">
-        <v>107.6248495225299</v>
+        <v>107.62484952253</v>
       </c>
       <c r="O25" t="n">
-        <v>77.18912331844025</v>
+        <v>77.18912331844028</v>
       </c>
       <c r="P25" t="n">
-        <v>39.63969086917166</v>
+        <v>39.63969086917167</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>38.94827076821825</v>
       </c>
       <c r="K27" t="n">
-        <v>116.4649175409973</v>
+        <v>194.6040165958707</v>
       </c>
       <c r="L27" t="n">
         <v>328.6252193087128</v>
@@ -36685,7 +36685,7 @@
         <v>428.6968622158317</v>
       </c>
       <c r="N27" t="n">
-        <v>458.6491415888133</v>
+        <v>380.51004253394</v>
       </c>
       <c r="O27" t="n">
         <v>363.2641759684458</v>
@@ -37156,7 +37156,7 @@
         <v>328.6252193087128</v>
       </c>
       <c r="M33" t="n">
-        <v>428.6968622158317</v>
+        <v>350.5577631609582</v>
       </c>
       <c r="N33" t="n">
         <v>458.6491415888133</v>
@@ -37168,7 +37168,7 @@
         <v>269.252030436905</v>
       </c>
       <c r="Q33" t="n">
-        <v>38.51346499999994</v>
+        <v>116.6525640548731</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>363.2641759684458</v>
       </c>
       <c r="P36" t="n">
-        <v>191.1129313820315</v>
+        <v>269.252030436905</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.6525640548731</v>
+        <v>38.51346499999994</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>269.252030436905</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.46173576821745</v>
+        <v>77.46173576821791</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>76.71820093325933</v>
+        <v>76.71820093325958</v>
       </c>
       <c r="K44" t="n">
         <v>223.3292471571534</v>
@@ -38037,7 +38037,7 @@
         <v>244.9821492246185</v>
       </c>
       <c r="Q44" t="n">
-        <v>105.5930972133837</v>
+        <v>105.5930972133836</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
